--- a/data/georgia_census/racha/lentexi/population_total.xlsx
+++ b/data/georgia_census/racha/lentexi/population_total.xlsx
@@ -1388,13 +1388,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC514FCE-DF16-409F-80EE-F2034389664E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD3351F-D36B-40E9-88B5-19EE7A853ED9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83FE0CCC-71E7-45F8-A90B-70FDFDBD37C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54FF4BD9-5296-4CDB-8185-1517BCC39325}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90279E5C-0B3E-4356-9557-E7888223CEC4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7261A1A3-E833-4836-B579-DD0097296263}"/>
 </file>